--- a/src/test/java/resources/testData.xlsx
+++ b/src/test/java/resources/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cemal\IdeaProjects\TestNG_POM_Framework_AutomationExercise\src\test\java\resources\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,17 +26,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>45556</t>
+    <t>angella.barrows@gmail.com</t>
   </si>
   <si>
-    <t>8888</t>
+    <t>hrll801w37s6jgr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,21 +363,24 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
   </sheetData>

--- a/src/test/java/resources/testData.xlsx
+++ b/src/test/java/resources/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cemal\IdeaProjects\TestNG_POM_Framework_AutomationExercise\src\test\java\resources\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,18 +24,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>angella.barrows@gmail.com</t>
   </si>
   <si>
     <t>hrll801w37s6jgr</t>
+  </si>
+  <si>
+    <t>benton.emmerich@yahoo.com</t>
+  </si>
+  <si>
+    <t>sd9qh8o5f0kv2g</t>
+  </si>
+  <si>
+    <t>linda.carroll@yahoo.com</t>
+  </si>
+  <si>
+    <t>113kt0vbjopceu</t>
+  </si>
+  <si>
+    <t>fairy.pacocha@gmail.com</t>
+  </si>
+  <si>
+    <t>yyy892dy</t>
+  </si>
+  <si>
+    <t>efrain.rice@gmail.com</t>
+  </si>
+  <si>
+    <t>buxv752sq</t>
+  </si>
+  <si>
+    <t>fletcher.schaden@gmail.com</t>
+  </si>
+  <si>
+    <t>dr19x82mnu8dasx</t>
+  </si>
+  <si>
+    <t>raguel.hilll@hotmail.com</t>
+  </si>
+  <si>
+    <t>betdx89c</t>
+  </si>
+  <si>
+    <t>hue.reynolds@yahoo.com</t>
+  </si>
+  <si>
+    <t>edtbcvxyusm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,16 +411,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/test/java/resources/testData.xlsx
+++ b/src/test/java/resources/testData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>angella.barrows@gmail.com</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>edtbcvxyusm</t>
+  </si>
+  <si>
+    <t>florinda.grimes@yahoo.com</t>
+  </si>
+  <si>
+    <t>76t4q3dwc</t>
+  </si>
+  <si>
+    <t>dudley.hilll@hotmail.com</t>
+  </si>
+  <si>
+    <t>g9b2e9wxn8</t>
   </si>
 </sst>
 </file>
@@ -417,10 +429,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/test/java/resources/testData.xlsx
+++ b/src/test/java/resources/testData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>angella.barrows@gmail.com</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>g9b2e9wxn8</t>
+  </si>
+  <si>
+    <t>ıvory.effertz@hotmail.com</t>
+  </si>
+  <si>
+    <t>zh0p9gbw6</t>
+  </si>
+  <si>
+    <t>jeane.kessler@hotmail.com</t>
+  </si>
+  <si>
+    <t>diimocmlzkqj</t>
+  </si>
+  <si>
+    <t>geraldo.rolfson@gmail.com</t>
+  </si>
+  <si>
+    <t>i1hhx9bzbb</t>
   </si>
 </sst>
 </file>
@@ -429,10 +447,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/test/java/resources/testData.xlsx
+++ b/src/test/java/resources/testData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>angella.barrows@gmail.com</t>
   </si>
@@ -102,6 +102,24 @@
   </si>
   <si>
     <t>i1hhx9bzbb</t>
+  </si>
+  <si>
+    <t>darrel.terry@hotmail.com</t>
+  </si>
+  <si>
+    <t>28g8q858aexlw</t>
+  </si>
+  <si>
+    <t>brooke.kertzmann@gmail.com</t>
+  </si>
+  <si>
+    <t>1ig5pjt2ibo</t>
+  </si>
+  <si>
+    <t>annita.rau@hotmail.com</t>
+  </si>
+  <si>
+    <t>dq8ep9372smtnvz</t>
   </si>
 </sst>
 </file>
@@ -447,10 +465,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/test/java/resources/testData.xlsx
+++ b/src/test/java/resources/testData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>angella.barrows@gmail.com</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>dq8ep9372smtnvz</t>
+  </si>
+  <si>
+    <t>coy.stanton@yahoo.com</t>
+  </si>
+  <si>
+    <t>mvx6qp6ef</t>
+  </si>
+  <si>
+    <t>zoraida.mann@yahoo.com</t>
+  </si>
+  <si>
+    <t>w04lvmfu47t</t>
   </si>
 </sst>
 </file>
@@ -465,10 +477,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
